--- a/dist/data/profiles/xlsx/bluff/profile 30-11 graph.xlsx
+++ b/dist/data/profiles/xlsx/bluff/profile 30-11 graph.xlsx
@@ -18951,11 +18951,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="52123612"/>
-        <c:axId val="85587677"/>
+        <c:axId val="48407053"/>
+        <c:axId val="45986458"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="52123612"/>
+        <c:axId val="48407053"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18990,12 +18990,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="85587677"/>
+        <c:crossAx val="45986458"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85587677"/>
+        <c:axId val="45986458"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19039,7 +19039,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="52123612"/>
+        <c:crossAx val="48407053"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
